--- a/Excel/Item.xlsx
+++ b/Excel/Item.xlsx
@@ -137,28 +137,28 @@
     <t xml:space="preserve">將獸肉、走路菇、馬鈴薯一同燉煮，非常營養</t>
   </si>
   <si>
-    <t xml:space="preserve">獸牙手環</t>
-  </si>
-  <si>
-    <t xml:space="preserve">裝飾著獸牙的手環，可以稍微增加攻擊力</t>
-  </si>
-  <si>
-    <t xml:space="preserve">玉石手環</t>
-  </si>
-  <si>
-    <t xml:space="preserve">裝飾著玉石的手環，可以稍微增加魔法攻擊力</t>
-  </si>
-  <si>
-    <t xml:space="preserve">厚重的項鍊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有點厚重的項鍊，但也因此比較結實。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">輕巧的項鍊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">比較輕巧的項鍊，但也因此比較脆弱。</t>
+    <t xml:space="preserve">木刀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">普通的木刀，可以用來打人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">掃把</t>
+  </si>
+  <si>
+    <t xml:space="preserve">看起來很普通的掃把，上面殘留著一點魔力的樣子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">護身符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">擁有保護持有者的神秘力量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">兔子吊飾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">讓你像兔子一樣靈巧又敏捷</t>
   </si>
   <si>
     <t xml:space="preserve">銳利的牙齒</t>
@@ -262,12 +262,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -468,401 +472,401 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="n">
+      <c r="A4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="0" t="n">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="A7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="0" t="n">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="0" t="n">
+      <c r="A9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" s="0" t="n">
+      <c r="A10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" s="0" t="n">
+      <c r="A11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="0" t="n">
+      <c r="A12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="0" t="n">
+      <c r="A13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="0" t="n">
+      <c r="A14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" s="0" t="n">
+      <c r="A15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="0" t="n">
+      <c r="A16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>22</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>23</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>24</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" s="0" t="n">
+      <c r="A21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B22" s="0" t="n">
+      <c r="A22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B23" s="0" t="n">
+      <c r="A23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Excel/Item.xlsx
+++ b/Excel/Item.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -62,40 +62,40 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">菌傘</t>
+    <t xml:space="preserve">野菇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可食用的品種</t>
+  </si>
+  <si>
+    <t xml:space="preserve">龜殼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以作為裝備的材料</t>
+  </si>
+  <si>
+    <t xml:space="preserve">獸肉</t>
   </si>
   <si>
     <t xml:space="preserve">可以當成食材</t>
   </si>
   <si>
-    <t xml:space="preserve">龜殼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可以作為裝備的材料</t>
-  </si>
-  <si>
-    <t xml:space="preserve">獸肉</t>
-  </si>
-  <si>
     <t xml:space="preserve">獸皮</t>
   </si>
   <si>
-    <t xml:space="preserve">馬鈴薯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外觀看起來像土塊一樣，但是營養豐富</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鐵礦</t>
+    <t xml:space="preserve">米</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人是鐵飯是鋼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石材</t>
   </si>
   <si>
     <t xml:space="preserve">製作裝備的材料</t>
   </si>
   <si>
-    <t xml:space="preserve">空白符卡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">製作卡片的材料</t>
+    <t xml:space="preserve">木材</t>
   </si>
   <si>
     <t xml:space="preserve">璞玉</t>
@@ -113,16 +113,16 @@
     <t xml:space="preserve">烤熟的走路菇</t>
   </si>
   <si>
-    <t xml:space="preserve">烤馬鈴薯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">烤熟的馬鈴薯</t>
-  </si>
-  <si>
-    <t xml:space="preserve">馬鈴薯燉肉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">將馬鈴薯與肉一同燉煮，口感濃郁</t>
+    <t xml:space="preserve">白飯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煮熟的飯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">肉類飯糰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吃起來很有飽足感</t>
   </si>
   <si>
     <t xml:space="preserve">香菇烤肉串</t>
@@ -131,10 +131,10 @@
     <t xml:space="preserve">將走路菇與肉串在菌類的香味讓烤肉更加美味肉更加美味</t>
   </si>
   <si>
-    <t xml:space="preserve">綜合燉肉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">將獸肉、走路菇、馬鈴薯一同燉煮，非常營養</t>
+    <t xml:space="preserve">香菇肉類飯糰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">營養均衡的飯糰</t>
   </si>
   <si>
     <t xml:space="preserve">木刀</t>
@@ -149,10 +149,10 @@
     <t xml:space="preserve">看起來很普通的掃把，上面殘留著一點魔力的樣子</t>
   </si>
   <si>
-    <t xml:space="preserve">護身符</t>
-  </si>
-  <si>
-    <t xml:space="preserve">擁有保護持有者的神秘力量</t>
+    <t xml:space="preserve">安全帽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安全第一</t>
   </si>
   <si>
     <t xml:space="preserve">兔子吊飾</t>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t xml:space="preserve">用來開啟該樓層的門</t>
+  </si>
+  <si>
+    <t xml:space="preserve">香菇飯糰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">香菇的香味很濃</t>
   </si>
 </sst>
 </file>
@@ -464,10 +470,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="A1:E23"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="8:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -558,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>2</v>
@@ -572,7 +578,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -589,10 +595,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>2</v>
@@ -606,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>2</v>
@@ -623,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>1</v>
@@ -643,7 +649,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>2</v>
@@ -758,14 +764,14 @@
       <c r="B17" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,14 +781,14 @@
       <c r="B18" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,14 +798,14 @@
       <c r="B19" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,14 +815,14 @@
       <c r="B20" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -867,6 +873,23 @@
         <v>45</v>
       </c>
       <c r="E23" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="1" t="n">
         <v>1</v>
       </c>
     </row>
